--- a/biology/Botanique/Gastrodia_agnicellus/Gastrodia_agnicellus.xlsx
+++ b/biology/Botanique/Gastrodia_agnicellus/Gastrodia_agnicellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gastrodia agnicellus est une espèce de plantes à fleurs de la famille des orchidées et du genre Gastrodia, trouvée à Madagascar et décrite dans le Curtis's Botanical Magazine par Johan Hermans (en) en 2020[2]. Elle est décrite dans les médias comme « l'orchidée la plus laide du monde », avec « des fleurs brunes, charnues et grotesques »[3],[4]. Comme toutes les espèces de son genre, elle est sans feuilles et mycohétérotrophe, c'est-à-dire qu'elle se nourrit de la sève élaborée des arbres par l'intermédiaire du réseau mycélien des champignons qu'elle parasite[2].
-L'épithète spécifique agnicellus signifie « petit agneau »[5]. Ce nom « fait référence à la couverture laineuse du rhizome, aux pétales en forme d'oreille et fait également allusion au nom de l'artiste botanique (« agneau » se disant « lambkin » en anglais) qui, dans son dessin, a donné vie à la nouvelle espèce »[2] De fait, pour son travail sur cette espèce, l'illustratrice, Deborah Lambkin, a remporté le prix Margaret Flockton 2020, un prix annuel célébrant « l'excellence dans l'illustration botanique scientifique » réalisé par les Jardins botaniques royaux de Sydney[6],[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gastrodia agnicellus est une espèce de plantes à fleurs de la famille des orchidées et du genre Gastrodia, trouvée à Madagascar et décrite dans le Curtis's Botanical Magazine par Johan Hermans (en) en 2020. Elle est décrite dans les médias comme « l'orchidée la plus laide du monde », avec « des fleurs brunes, charnues et grotesques »,. Comme toutes les espèces de son genre, elle est sans feuilles et mycohétérotrophe, c'est-à-dire qu'elle se nourrit de la sève élaborée des arbres par l'intermédiaire du réseau mycélien des champignons qu'elle parasite.
+L'épithète spécifique agnicellus signifie « petit agneau ». Ce nom « fait référence à la couverture laineuse du rhizome, aux pétales en forme d'oreille et fait également allusion au nom de l'artiste botanique (« agneau » se disant « lambkin » en anglais) qui, dans son dessin, a donné vie à la nouvelle espèce » De fait, pour son travail sur cette espèce, l'illustratrice, Deborah Lambkin, a remporté le prix Margaret Flockton 2020, un prix annuel célébrant « l'excellence dans l'illustration botanique scientifique » réalisé par les Jardins botaniques royaux de Sydney,.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gastrodia agnicellus n'a été trouvée que dans la région de Vatovavy-Fitovinany au sud-est de Madagascar. Elle vit à l'ombre des forêts, souvent sous la litière de feuilles[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gastrodia agnicellus n'a été trouvée que dans la région de Vatovavy-Fitovinany au sud-est de Madagascar. Elle vit à l'ombre des forêts, souvent sous la litière de feuilles.
 </t>
         </is>
       </c>
